--- a/Gantt Bitirme.xlsx
+++ b/Gantt Bitirme.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfa\Documents\GitHub\Benders-Arena\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TheProject\benders-Arena\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF82B673-2C42-43ED-82DD-B7BC9415C6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -323,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,24 +723,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,12 +766,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -801,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -823,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -834,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -845,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -856,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -867,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -878,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -889,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -900,13 +892,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -917,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -928,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -939,13 +931,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -956,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -967,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -978,13 +970,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
@@ -995,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1039,262 +1031,262 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
